--- a/SurvivalGame/Assets/xlsxData/產品資料.xlsx
+++ b/SurvivalGame/Assets/xlsxData/產品資料.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\build_school\project\finalProject1\SurvivalGameWeb\SurvivalGame\Assets\xlsxData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\File\BS\Project\SurvivalGameWeb\SurvivalGame\SurvivalGame\Assets\xlsxData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="槍" sheetId="1" r:id="rId1"/>
     <sheet name="彈匣" sheetId="3" r:id="rId2"/>
+    <sheet name="配件" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="280">
   <si>
     <t>名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,6 +740,406 @@
   </si>
   <si>
     <t>彈匣類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格(size)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Strike Myth HP System Aluminum Tank w/ Merc Regulator and 4-Port Regulator(Size: 48 Ci / 3000 PSI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦斯罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.5" H x 3.5" D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48 Cubic Inches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>First Strike Myth HP System Aluminum Tank w/ Merc Regulator and 4-Port Regulator(Size: 38 Ci / 3000 PSI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.5" H x 3.6" D</t>
+  </si>
+  <si>
+    <t>38 Cubic Inches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>First Strike Myth HP System Aluminum Tank w/ Merc Regulator and 4-Port Regulator(Size: 26 Ci / 3000 PSI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦斯罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.5" H x 3.7" D</t>
+  </si>
+  <si>
+    <t>26 Cubic Inches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Strike Myth HP System Aluminum Tank w/ Merc Regulator and 4-Port Regulator(Size: 10 Ci / 3000 PSI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.5" H x 3.8" D</t>
+  </si>
+  <si>
+    <t>10 Cubic Inches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ninja Paintball 13/3000 HPA System Air Tank w/ Ninja Pro V2 (Color: Black)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦斯罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5" H x 2" Diam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 Cubic Inches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ninja 4500 HPA System Carbon Fiber Tank w/ Ninja Pro V2 SLP Regulator (Size: 68 Cubic Inches)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11"L 4.25"D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 Cubic Inches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valken Paintball 26ci/3000 HPA Air Tank with DOT-TC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦斯罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.25" H x 2.5" Diam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 cubic inch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valken Riot ZERO-G 68/4500 Air Tank (Color: Black)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.5" H x 4.5" Diam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 cubic inch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valken Zero-G Lightweight 68/4500 HPA Air Tank with DOT-TC Regulator (Color: Flag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12" H x 4.5" Diam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65 Cubic Inches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>Valken Zero-G Lightweight 68/4500 HPA Air Tank with DOT-TC Regulator (Color: Aloha)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12" H x 4.5" Diam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65 Cubic Inches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aloha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>DAISY PREMIUM ZINC PLATED STEEL BBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB彈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>Colt Competition .12 g 6mm Green BBs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t>DARK SNIPER 0.36 BB PELLETS 2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>CURSED Asg Series Bb's 0.25g 1kg 4000 Bb's White 6mm Pellets Airsoft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25g/顆//1KG Bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P015</t>
+  </si>
+  <si>
+    <t>Crosman 6mm biodegradable airsoft BBs, 0.20g, 2000 rds, white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>Airsoft BBS 0.12g 6mm 2000 Rounds with an resealable Plastic Bottle&amp; an Easy-Pour spout,Yellow Airsoft pellets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000 Rounds/275g Can</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>ASG Blaster Devil BBs 0.2 Gram, 3000 Rounds - Airsoft Ammo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>Aim Green: Biodegradable Airsoft BBS .25g - Pellets - 6mm 10,000 Rounds - Smooth Finish BBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB彈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>Air Venturi Pro CQBBs 6mm Airsoft BBS, 0.20g, 2,700 RDS, White</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2700 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>GameFace ASP512 Premier .12-Gram Red Airsoft BBs (5000-Count)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,25 +1484,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="68.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
     <col min="7" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" customWidth="1"/>
-    <col min="11" max="11" width="62.109375" customWidth="1"/>
-    <col min="12" max="12" width="83.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="62.125" customWidth="1"/>
+    <col min="12" max="12" width="83.75" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1145,7 +1546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1189,7 +1590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="343.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="343.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1233,7 +1634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1277,7 +1678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1321,7 +1722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="198" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1365,7 +1766,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="198" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1409,7 +1810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="198" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1453,7 +1854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="181.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1497,7 +1898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1541,7 +1942,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1600,9 +2001,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -1628,7 +2029,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -1654,7 +2055,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1680,7 +2081,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -1706,7 +2107,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1732,7 +2133,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -1758,7 +2159,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -1784,7 +2185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -1810,7 +2211,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -1836,7 +2237,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -1862,7 +2263,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -1886,6 +2287,505 @@
       </c>
       <c r="H11" t="s">
         <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" t="s">
+        <v>279</v>
+      </c>
+      <c r="G21" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/SurvivalGame/Assets/xlsxData/產品資料.xlsx
+++ b/SurvivalGame/Assets/xlsxData/產品資料.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\File\BS\Project\SurvivalGameWeb\SurvivalGame\SurvivalGame\Assets\xlsxData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\build_school\project\finalProject1\SurvivalGameWeb\SurvivalGame\Assets\xlsxData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="槍" sheetId="1" r:id="rId1"/>
@@ -1488,21 +1488,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="7" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="62.125" customWidth="1"/>
-    <col min="12" max="12" width="83.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="62.109375" customWidth="1"/>
+    <col min="12" max="12" width="83.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="343.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="343.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="132" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="198" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="198" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="198" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="181.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="210.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="162" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="330" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="340.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1997,13 +1997,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="57.21875" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="123" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -2185,7 +2194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -2237,7 +2246,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -2299,13 +2308,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="96.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2328,7 +2344,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -2351,7 +2367,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>190</v>
       </c>
@@ -2374,7 +2390,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -2397,7 +2413,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -2420,7 +2436,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -2443,7 +2459,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -2466,7 +2482,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -2489,7 +2505,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -2512,7 +2528,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -2535,7 +2551,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -2558,7 +2574,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>235</v>
       </c>
@@ -2581,7 +2597,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -2604,7 +2620,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -2627,7 +2643,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>250</v>
       </c>
@@ -2650,7 +2666,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -2673,7 +2689,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>258</v>
       </c>
@@ -2696,7 +2712,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -2719,7 +2735,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>267</v>
       </c>
@@ -2742,7 +2758,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>272</v>
       </c>
@@ -2765,7 +2781,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>276</v>
       </c>

--- a/SurvivalGame/Assets/xlsxData/產品資料.xlsx
+++ b/SurvivalGame/Assets/xlsxData/產品資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="槍" sheetId="1" r:id="rId1"/>
@@ -197,14 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M002/M003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M008/M009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1037,10 +1029,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.25g/顆//1KG Bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4000 Rounds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,14 +1055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.12g/顆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000 Rounds/275g Can</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yellow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1140,6 +1120,26 @@
   </si>
   <si>
     <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M008/M009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M002/M003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12g/顆/275g Can</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25g/顆/1KG Bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1566,7 +1566,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -1587,7 +1587,7 @@
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="343.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1595,16 +1595,16 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1631,7 +1631,7 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="113.4" x14ac:dyDescent="0.3">
@@ -1639,22 +1639,22 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -1675,30 +1675,30 @@
         <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -1710,280 +1710,280 @@
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
       </c>
       <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
         <v>65</v>
-      </c>
-      <c r="M6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
       </c>
       <c r="H7" t="s">
         <v>33</v>
       </c>
       <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
         <v>72</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" t="s">
         <v>75</v>
-      </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" t="s">
-        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>33</v>
       </c>
       <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
         <v>72</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
         <v>75</v>
-      </c>
-      <c r="K8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="210.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
         <v>88</v>
       </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>90</v>
-      </c>
-      <c r="G9" t="s">
-        <v>92</v>
       </c>
       <c r="H9" t="s">
         <v>33</v>
       </c>
       <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>94</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" t="s">
         <v>95</v>
-      </c>
-      <c r="M9" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="162" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
         <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" t="s">
-        <v>100</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
       </c>
       <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="340.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
       </c>
       <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" t="s">
         <v>109</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -2014,288 +2014,288 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
         <v>127</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>128</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>129</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>130</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>131</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>132</v>
-      </c>
-      <c r="G3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
         <v>135</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" t="s">
         <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
         <v>142</v>
-      </c>
-      <c r="F5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
         <v>145</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>146</v>
       </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>147</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" t="s">
         <v>148</v>
-      </c>
-      <c r="F6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
         <v>151</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
         <v>152</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" t="s">
         <v>153</v>
-      </c>
-      <c r="D7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
         <v>160</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>161</v>
       </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" t="s">
         <v>162</v>
-      </c>
-      <c r="F9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" t="s">
         <v>165</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>166</v>
       </c>
-      <c r="C10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" t="s">
         <v>167</v>
-      </c>
-      <c r="F10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" t="s">
         <v>170</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>171</v>
       </c>
-      <c r="C11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2308,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2326,486 +2326,487 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>177</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>178</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>179</v>
-      </c>
-      <c r="F1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
         <v>182</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>183</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>184</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>185</v>
       </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>187</v>
-      </c>
-      <c r="G2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>191</v>
       </c>
-      <c r="C3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" t="s">
         <v>192</v>
-      </c>
-      <c r="E3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
         <v>195</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>196</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>197</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>198</v>
       </c>
-      <c r="E4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" t="s">
-        <v>200</v>
-      </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" t="s">
         <v>201</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>202</v>
       </c>
-      <c r="C5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>203</v>
       </c>
-      <c r="E5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" t="s">
-        <v>205</v>
-      </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
         <v>206</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>207</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>208</v>
       </c>
-      <c r="D6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" t="s">
-        <v>210</v>
-      </c>
       <c r="F6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
         <v>187</v>
-      </c>
-      <c r="G6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
         <v>211</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>212</v>
       </c>
-      <c r="C7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" t="s">
-        <v>214</v>
-      </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" t="s">
         <v>215</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>216</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>217</v>
       </c>
-      <c r="D8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" t="s">
-        <v>219</v>
-      </c>
       <c r="F8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" t="s">
         <v>220</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>221</v>
       </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" t="s">
-        <v>223</v>
-      </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" t="s">
         <v>224</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>225</v>
       </c>
-      <c r="C10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>226</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>227</v>
-      </c>
-      <c r="F10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" t="s">
         <v>230</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>231</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>232</v>
       </c>
-      <c r="E11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" t="s">
-        <v>234</v>
-      </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
         <v>235</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>236</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>237</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>238</v>
       </c>
-      <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" t="s">
-        <v>240</v>
-      </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" t="s">
         <v>241</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>242</v>
       </c>
-      <c r="C13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>243</v>
       </c>
-      <c r="E13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F13" t="s">
-        <v>245</v>
-      </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" t="s">
         <v>246</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>247</v>
       </c>
-      <c r="C14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" t="s">
-        <v>249</v>
-      </c>
       <c r="F14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" t="s">
         <v>250</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F15" t="s">
         <v>251</v>
       </c>
-      <c r="C15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" t="s">
-        <v>252</v>
-      </c>
-      <c r="E15" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15" t="s">
-        <v>254</v>
-      </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F17" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F21" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SurvivalGame/Assets/xlsxData/產品資料.xlsx
+++ b/SurvivalGame/Assets/xlsxData/產品資料.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="363">
   <si>
     <t>名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>360FPS（室溫25°C時的最高氣體測試）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>半自動/全自動</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,10 +247,6 @@
   </si>
   <si>
     <t>G005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KJ WORKS M4 CQB GBB Rifle (Tanio Koba)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GHK AKM GBB Rifle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3350g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,10 +456,6 @@
   </si>
   <si>
     <t>775mm / 860mm (Extended)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKYO MARUI M4A1 MWS GBB Rifle (Z System)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -521,10 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOKYO MARUI M4 82RD AEG Magazine (Next Gen, Black)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>686g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,10 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GHK AKM 40RD GBB Magazine (GAS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>640g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,10 +583,6 @@
     <t>10.5" H x 3.8" D</t>
   </si>
   <si>
-    <t>Ninja Paintball 13/3000 HPA System Air Tank w/ Ninja Pro V2 (Color: Black)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.5" H x 2" Diam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,10 +661,6 @@
   </si>
   <si>
     <t>C001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.11 Logo T-Shirt Black 40050S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -719,10 +687,6 @@
   </si>
   <si>
     <t>C002</t>
-  </si>
-  <si>
-    <t>5.11 Rapid Assault Shirt Multicam 72185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>M/L/XL</t>
@@ -787,10 +751,6 @@
     <t>C004</t>
   </si>
   <si>
-    <t>CONDOR EXO PLATE CARRIER GEN II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -888,10 +848,6 @@
     <t>C008</t>
   </si>
   <si>
-    <t>Reebok Dauntless - RB8827</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>靴子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,10 +873,6 @@
     <t>C009</t>
   </si>
   <si>
-    <t>ESS Profile Turbofan Goggles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>護目鏡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1171,323 +1123,387 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>11.25" H x 2.5" Diam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 cubic inch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12" H x 4.5" Diam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65 Cubic Inches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valken Zero-G Lightweight 68/4500 HPA Air Tank with DOT-TC Regulator (Color: Aloha)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12" H x 4.5" Diam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aloha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAISY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BULLDOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURSED Asg Series Bb's 0.25g 1kg 4000 Bb's White 6mm Pellets Airsoft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25g/顆//1KG Bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crosman 6mm biodegradable airsoft BBs, 0.20g, 2000 rds, white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crosman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ocean Loong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaster Devil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aim Green: Biodegradable Airsoft BBS .25g - Pellets - 6mm 10,000 Rounds - Smooth Finish BBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25g/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aim Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air Venturi Pro CQBBs 6mm Airsoft BBS, 0.20g, 2,700 RDS, White</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2700 Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKYO MARUI MP7A1 GBB SMG 40RD Magazine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm BB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokyo Marui MP7A1 Gas Blowback GBB SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marui Next Generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Earth / Tan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82發/ 30發可切換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKYO MARUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokyo Marui Next Generation Recoil Engine M4 / NSWC-Crane SEALs / M4 CQB-R / M4A1 SOCOM / SCAR-L / HK416D AEG Airsoft Rifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm BB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWA KRISS Vector 22RD GBB Magazine (Black)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWA Kriss Vector GBB SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khaki / Tan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> KWA Kriss Vector GBB SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSC M4 40RD GBB Magazine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>585g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All M4A1 / M4 / M16 Series Airsoft Gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHK AKM Series Airsoft Gas Blow Back GBB Rifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYBERGUN THOMPSON M1A1 30RD Gas Magazine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYBERGUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKYO MARUI HOWA TYPE 89 35RD GAS Magazine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>價錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360FPS（室溫25°C時的最高氣體測試）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KJ WORKS M4 CQB GBB Rifle (Tanio Koba)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHK AKM GBB Rifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKYO MARUI M4A1 MWS GBB Rifle (Z System)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>價錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKYO MARUI SCAR-L 82RD AEG Magazine (Next Gen, Tan)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKYO MARUI M4 82RD AEG Magazine (Next Gen, Black)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWA KRISS Vector 49RD GBB Magazine (Tan)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHK AKM 40RD GBB Magazine (GAS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYBERGUN THOMPSON M1A1 50RD Gas Magazine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>價錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ninja Paintball 13/3000 HPA System Air Tank w/ Ninja Pro V2 (Color: Black)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Valken Paintball 26ci/3000 HPA Air Tank with DOT-TC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.25" H x 2.5" Diam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68 cubic inch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Valken Zero-G Lightweight 68/4500 HPA Air Tank with DOT-TC Regulator (Color: Flag)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12" H x 4.5" Diam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65 Cubic Inches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valken Zero-G Lightweight 68/4500 HPA Air Tank with DOT-TC Regulator (Color: Aloha)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12" H x 4.5" Diam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aloha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAISY PREMIUM ZINC PLATED STEEL BBS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.33g/顆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2400 Rounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAISY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12g/顆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.36g/顆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BULLDOG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CURSED Asg Series Bb's 0.25g 1kg 4000 Bb's White 6mm Pellets Airsoft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25g/顆//1KG Bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000 Rounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CURSED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crosman 6mm biodegradable airsoft BBs, 0.20g, 2000 rds, white</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crosman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ocean Loong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ASG Blaster Devil BBs 0.2 Gram, 3000 Rounds - Airsoft Ammo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blaster Devil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aim Green: Biodegradable Airsoft BBS .25g - Pellets - 6mm 10,000 Rounds - Smooth Finish BBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25g/顆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aim Green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Air Venturi Pro CQBBs 6mm Airsoft BBS, 0.20g, 2,700 RDS, White</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2700 Rounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKYO MARUI MP7A1 GBB SMG 40RD Magazine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mm BB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tokyo Marui MP7A1 Gas Blowback GBB SMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKYO MARUI SCAR-L 82RD AEG Magazine (Next Gen, Tan)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marui Next Generation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dark Earth / Tan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>350g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82發/ 30發可切換</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKYO MARUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tokyo Marui Next Generation Recoil Engine M4 / NSWC-Crane SEALs / M4 CQB-R / M4A1 SOCOM / SCAR-L / HK416D AEG Airsoft Rifle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mm BB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWA KRISS Vector 22RD GBB Magazine (Black)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWA Kriss Vector GBB SMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWA KRISS Vector 49RD GBB Magazine (Tan)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Khaki / Tan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> KWA Kriss Vector GBB SMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KSC M4 40RD GBB Magazine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>585g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All M4A1 / M4 / M16 Series Airsoft Gas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GHK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GHK AKM Series Airsoft Gas Blow Back GBB Rifle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYBERGUN THOMPSON M1A1 50RD Gas Magazine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYBERGUN THOMPSON M1A1 30RD Gas Magazine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>304g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYBERGUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKYO MARUI HOWA TYPE 89 35RD GAS Magazine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35發</t>
+    <t>價錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11 Rapid Assault Shirt Multicam 72185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11 Logo T-Shirt Black 40050S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONDOR EXO PLATE CARRIER GEN II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reebok Dauntless - RB8827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESS Profile Turbofan Goggles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1844,27 +1860,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="A1:N11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.625" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="7" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="62.125" customWidth="1"/>
-    <col min="12" max="12" width="83.75" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="31.25" customWidth="1"/>
+    <col min="13" max="13" width="83.75" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1899,18 +1918,21 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -1928,7 +1950,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
@@ -1942,31 +1964,34 @@
       <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2">
+        <v>435</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="343.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="343.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -1981,86 +2006,92 @@
         <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2">
+        <v>285</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="189" x14ac:dyDescent="0.25">
+      <c r="O3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="189" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="2">
+        <v>300</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="168" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="168" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>33</v>
@@ -2072,280 +2103,301 @@
         <v>9</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="2">
+        <v>319</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="315" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="315" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="2">
+        <v>330</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:15" ht="273" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="273" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="2">
+        <v>410</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:15" ht="273" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="273" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="2">
+        <v>439</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="2">
+        <v>555</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="231" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="231" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="2">
+        <v>565</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="L11" s="2">
+        <v>488</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2357,15 +2409,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2373,315 +2425,348 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="F1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="G1" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>228</v>
+        <v>345</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H3" t="s">
-        <v>326</v>
+        <v>303</v>
+      </c>
+      <c r="H3">
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="J3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="F5" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>333</v>
+      <c r="H5">
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="J5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" t="s">
-        <v>121</v>
-      </c>
       <c r="F6" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
-        <v>339</v>
+      <c r="H6">
+        <v>55.5</v>
       </c>
       <c r="I6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="J6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="G7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
+        <v>303</v>
+      </c>
+      <c r="H7">
+        <v>53.5</v>
       </c>
       <c r="I7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H8" t="s">
-        <v>348</v>
+        <v>311</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="J8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>44.5</v>
+      </c>
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="I9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="F10" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
-        <v>355</v>
+      <c r="H10">
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="F11" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="I11" t="s">
-        <v>130</v>
+      <c r="J11" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2692,19 +2777,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="56.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2712,542 +2798,605 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>228</v>
+        <v>351</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>265</v>
+      <c r="G2">
+        <v>49.95</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>49.95</v>
+      </c>
+      <c r="H3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4">
+        <v>49.95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5">
+        <v>49.95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6">
+        <v>89.95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7">
+        <v>184.95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8">
+        <v>49.95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12">
+        <v>7.89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
         <v>230</v>
       </c>
-      <c r="H3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13">
+        <v>1.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>279</v>
+      </c>
+      <c r="I13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
         <v>232</v>
       </c>
-      <c r="G4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="C14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14">
+        <v>12.99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" t="s">
         <v>235</v>
       </c>
-      <c r="D6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G15">
+        <v>9.49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>285</v>
+      </c>
+      <c r="I15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" t="s">
         <v>233</v>
       </c>
-      <c r="H6" t="s">
+      <c r="D16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F16" t="s">
         <v>235</v>
       </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G16">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>287</v>
+      </c>
+      <c r="I16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17">
+        <v>12.87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>289</v>
+      </c>
+      <c r="I17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18">
+        <v>11.99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19">
+        <v>19.18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20">
+        <v>9.99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>241</v>
+      </c>
+      <c r="I20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" t="s">
         <v>278</v>
       </c>
-      <c r="B8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" t="s">
-        <v>292</v>
-      </c>
-      <c r="H12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E21" t="s">
         <v>243</v>
       </c>
-      <c r="G13" t="s">
-        <v>294</v>
-      </c>
-      <c r="H13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
         <v>244</v>
       </c>
-      <c r="C14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" t="s">
-        <v>296</v>
-      </c>
-      <c r="H14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G15" t="s">
-        <v>300</v>
-      </c>
-      <c r="H15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" t="s">
-        <v>246</v>
-      </c>
-      <c r="F16" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" t="s">
-        <v>302</v>
-      </c>
-      <c r="H16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" t="s">
-        <v>303</v>
-      </c>
-      <c r="G17" t="s">
-        <v>304</v>
-      </c>
-      <c r="H17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" t="s">
-        <v>247</v>
-      </c>
-      <c r="G18" t="s">
-        <v>306</v>
-      </c>
-      <c r="H18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" t="s">
-        <v>307</v>
-      </c>
-      <c r="C19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" t="s">
-        <v>308</v>
-      </c>
-      <c r="E19" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G19" t="s">
-        <v>309</v>
-      </c>
-      <c r="H19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" t="s">
-        <v>311</v>
-      </c>
-      <c r="F20" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" t="s">
-        <v>293</v>
-      </c>
-      <c r="E21" t="s">
-        <v>255</v>
-      </c>
-      <c r="F21" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" t="s">
-        <v>234</v>
+      <c r="I21" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3258,262 +3407,295 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2">
+        <v>9.99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3">
+        <v>67.989999999999995</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
         <v>170</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
         <v>172</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
         <v>173</v>
       </c>
-      <c r="C3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F4">
+        <v>72.489999999999995</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H4" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>176</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" t="s">
         <v>178</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5" t="s">
         <v>179</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F5">
+        <v>73.95</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H5" t="s">
         <v>181</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B6" t="s">
         <v>183</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
         <v>185</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F6">
+        <v>350</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H6" t="s">
         <v>187</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>188</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B7" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C7" t="s">
         <v>190</v>
       </c>
-      <c r="G5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" t="s">
-        <v>200</v>
-      </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="231" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8">
+        <v>24.95</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
         <v>201</v>
-      </c>
-      <c r="G7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="231" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" t="s">
-        <v>212</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9">
+        <v>89.99</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10">
+        <v>174.99</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="264" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11">
+        <v>25.99</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H11" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="264" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
